--- a/Riesgo/DataTarea_Exogenas_Riesgo3.xlsx
+++ b/Riesgo/DataTarea_Exogenas_Riesgo3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/flavio_abanto_bcrp_gob_pe/Documents/DMM/CUECOPolMon-main/CUECOPolMon-main/Riesgo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/flavio_abanto_bcrp_gob_pe/Documents/DMM/CUECOPolMon-main/CUECOPolMon-main (1)/CUECOPolMon-main/Riesgo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_0231D75C2C276BC4C96F670335E2EB0A5EB77CA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD608798-1AA3-43F1-95DF-DFF8AF2A0C87}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_0231D75C2C276BC4C96F670335E2EB0A5EB77CA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0403E204-5207-4A0E-BA27-05E25BE04CD4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,14 +659,14 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4">
-        <v>1.884126466184451</v>
+        <v>2.3841264661844512</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4">
         <v>0.91384956126651085</v>
       </c>
       <c r="K3" s="5">
-        <v>2.3930951174366473</v>
+        <v>2.4430951174366471</v>
       </c>
       <c r="L3" s="6"/>
     </row>
@@ -683,14 +683,14 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4">
-        <v>2.0930540365912851</v>
+        <v>2.5930540365912851</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4">
         <v>1.1266701743315761</v>
       </c>
       <c r="K4" s="5">
-        <v>2.3253901834923272</v>
+        <v>2.375390183492327</v>
       </c>
       <c r="L4" s="6"/>
     </row>
@@ -714,7 +714,7 @@
         <v>1.2955613233791039</v>
       </c>
       <c r="K5" s="5">
-        <v>2.2180305634547</v>
+        <v>2.3180305634547</v>
       </c>
       <c r="L5" s="6"/>
     </row>
@@ -738,7 +738,7 @@
         <v>1.424829384708675</v>
       </c>
       <c r="K6" s="5">
-        <v>2.1694354933588209</v>
+        <v>2.269435493358821</v>
       </c>
       <c r="L6" s="6"/>
     </row>
@@ -755,7 +755,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <v>2.172242801530579</v>
+        <v>2.422242801530579</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4">
@@ -779,7 +779,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4">
-        <v>2.1756188688010099</v>
+        <v>2.4256188688010099</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4">
@@ -803,14 +803,14 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4">
-        <v>1.9271042002492009</v>
+        <v>2.1771042002492011</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4">
         <v>1.6394703557769941</v>
       </c>
       <c r="K9" s="5">
-        <v>1.9638372489895271</v>
+        <v>2.0138372489895269</v>
       </c>
       <c r="L9" s="6"/>
     </row>
@@ -827,14 +827,14 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
-        <v>1.9277659436680299</v>
+        <v>2.1777659436680299</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4">
         <v>1.673303583980273</v>
       </c>
       <c r="K10" s="5">
-        <v>1.938802917343927</v>
+        <v>1.988802917343927</v>
       </c>
       <c r="L10" s="6"/>
     </row>
